--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Carroll.Spring.021020.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Carroll.Spring.021020.xlsx_with_dialog_acts.xlsx
@@ -1561,12 +1561,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1603,12 +1603,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1729,12 +1729,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1855,12 +1855,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -1939,12 +1939,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2107,12 +2107,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2191,12 +2191,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2275,12 +2275,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3787,12 +3787,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4207,12 +4207,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5005,12 +5005,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5509,12 +5509,12 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5635,12 +5635,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5719,12 +5719,12 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5845,12 +5845,12 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5929,12 +5929,12 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6387,12 +6387,12 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6471,12 +6471,12 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6597,12 +6597,12 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6681,12 +6681,12 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6723,12 +6723,12 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6765,12 +6765,12 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6807,12 +6807,12 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7093,12 +7093,12 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7741,12 +7741,12 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8449,12 +8449,12 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8575,12 +8575,12 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8617,12 +8617,12 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8659,12 +8659,12 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8701,12 +8701,12 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9197,12 +9197,12 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9239,12 +9239,12 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9323,12 +9323,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9453,12 +9453,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10123,12 +10123,12 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10207,12 +10207,12 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10295,12 +10295,12 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10337,12 +10337,12 @@
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10925,12 +10925,12 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11013,12 +11013,12 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11143,12 +11143,12 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11269,12 +11269,12 @@
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11311,12 +11311,12 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11395,12 +11395,12 @@
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11521,12 +11521,12 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11605,12 +11605,12 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12197,12 +12197,12 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12239,12 +12239,12 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12533,12 +12533,12 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12827,12 +12827,12 @@
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13037,12 +13037,12 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13411,12 +13411,12 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13453,12 +13453,12 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14309,12 +14309,12 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14807,12 +14807,12 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15307,12 +15307,12 @@
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15601,12 +15601,12 @@
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15941,12 +15941,12 @@
       <c r="H371" t="inlineStr"/>
       <c r="I371" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16277,12 +16277,12 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16529,12 +16529,12 @@
       <c r="H385" t="inlineStr"/>
       <c r="I385" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16613,12 +16613,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17075,12 +17075,12 @@
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17117,12 +17117,12 @@
       <c r="H399" t="inlineStr"/>
       <c r="I399" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17369,12 +17369,12 @@
       <c r="H405" t="inlineStr"/>
       <c r="I405" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18545,12 +18545,12 @@
       <c r="H433" t="inlineStr"/>
       <c r="I433" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18713,12 +18713,12 @@
       <c r="H437" t="inlineStr"/>
       <c r="I437" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19637,12 +19637,12 @@
       <c r="H459" t="inlineStr"/>
       <c r="I459" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20317,12 +20317,12 @@
       <c r="H475" t="inlineStr"/>
       <c r="I475" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20443,12 +20443,12 @@
       <c r="H478" t="inlineStr"/>
       <c r="I478" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20863,12 +20863,12 @@
       <c r="H488" t="inlineStr"/>
       <c r="I488" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21111,12 +21111,12 @@
       <c r="H494" t="inlineStr"/>
       <c r="I494" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21153,12 +21153,12 @@
       <c r="H495" t="inlineStr"/>
       <c r="I495" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21321,12 +21321,12 @@
       <c r="H499" t="inlineStr"/>
       <c r="I499" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21447,12 +21447,12 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21741,12 +21741,12 @@
       <c r="H509" t="inlineStr"/>
       <c r="I509" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22791,12 +22791,12 @@
       <c r="H534" t="inlineStr"/>
       <c r="I534" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23127,12 +23127,12 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23253,12 +23253,12 @@
       <c r="H545" t="inlineStr"/>
       <c r="I545" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23295,12 +23295,12 @@
       <c r="H546" t="inlineStr"/>
       <c r="I546" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
